--- a/pedidos/pedidos.xlsx
+++ b/pedidos/pedidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="164">
   <si>
     <t>Numero_Pedido</t>
   </si>
@@ -469,6 +469,12 @@
     <t>Não</t>
   </si>
   <si>
+    <t>23/06/2025 20:58</t>
+  </si>
+  <si>
+    <t>24/06/2025 15:20</t>
+  </si>
+  <si>
     <t>09/06/2025 12:54</t>
   </si>
   <si>
@@ -488,6 +494,9 @@
   </si>
   <si>
     <t>09/06/2025 19:59</t>
+  </si>
+  <si>
+    <t>Sistema (PDF Gerado)</t>
   </si>
   <si>
     <t>Usuário do Sistema</t>
@@ -967,10 +976,10 @@
         <v>151</v>
       </c>
       <c r="N2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R2" t="s">
         <v>151</v>
@@ -1017,16 +1026,16 @@
         <v>152</v>
       </c>
       <c r="N3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" t="s">
         <v>160</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>158</v>
       </c>
       <c r="R3" t="s">
         <v>152</v>
@@ -1070,19 +1079,19 @@
         <v>150</v>
       </c>
       <c r="M4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1123,19 +1132,19 @@
         <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1179,10 +1188,10 @@
         <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1223,19 +1232,19 @@
         <v>150</v>
       </c>
       <c r="M7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="S7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1276,19 +1285,19 @@
         <v>150</v>
       </c>
       <c r="M8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1332,10 +1341,10 @@
         <v>50</v>
       </c>
       <c r="N9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1376,19 +1385,19 @@
         <v>150</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1429,19 +1438,19 @@
         <v>150</v>
       </c>
       <c r="M11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R11" t="s">
         <v>158</v>
       </c>
-      <c r="Q11" t="s">
-        <v>158</v>
-      </c>
-      <c r="R11" t="s">
-        <v>156</v>
-      </c>
       <c r="S11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1482,19 +1491,19 @@
         <v>150</v>
       </c>
       <c r="M12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1538,10 +1547,10 @@
         <v>54</v>
       </c>
       <c r="N13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1585,10 +1594,10 @@
         <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1632,10 +1641,10 @@
         <v>56</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1679,10 +1688,10 @@
         <v>57</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1726,10 +1735,10 @@
         <v>58</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1773,10 +1782,10 @@
         <v>59</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1820,10 +1829,10 @@
         <v>60</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1861,10 +1870,10 @@
         <v>61</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1902,10 +1911,10 @@
         <v>62</v>
       </c>
       <c r="N21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1949,10 +1958,10 @@
         <v>63</v>
       </c>
       <c r="N22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1996,10 +2005,10 @@
         <v>64</v>
       </c>
       <c r="N23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2037,10 +2046,10 @@
         <v>65</v>
       </c>
       <c r="N24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2084,10 +2093,10 @@
         <v>66</v>
       </c>
       <c r="N25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2131,10 +2140,10 @@
         <v>67</v>
       </c>
       <c r="N26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/pedidos/pedidos.xlsx
+++ b/pedidos/pedidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="165">
   <si>
     <t>Numero_Pedido</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>09/06/2025 19:59</t>
+  </si>
+  <si>
+    <t>27/06/2025 13:36</t>
   </si>
   <si>
     <t>Sistema (PDF Gerado)</t>
@@ -976,10 +979,10 @@
         <v>151</v>
       </c>
       <c r="N2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R2" t="s">
         <v>151</v>
@@ -1026,16 +1029,16 @@
         <v>152</v>
       </c>
       <c r="N3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q3" t="s">
         <v>161</v>
-      </c>
-      <c r="P3" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>160</v>
       </c>
       <c r="R3" t="s">
         <v>152</v>
@@ -1082,16 +1085,16 @@
         <v>153</v>
       </c>
       <c r="N4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R4" t="s">
         <v>153</v>
       </c>
       <c r="S4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1135,16 +1138,16 @@
         <v>154</v>
       </c>
       <c r="N5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R5" t="s">
         <v>154</v>
       </c>
       <c r="S5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1188,10 +1191,10 @@
         <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1235,16 +1238,16 @@
         <v>155</v>
       </c>
       <c r="N7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R7" t="s">
         <v>155</v>
       </c>
       <c r="S7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1288,16 +1291,16 @@
         <v>156</v>
       </c>
       <c r="N8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
         <v>156</v>
       </c>
       <c r="S8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1341,10 +1344,10 @@
         <v>50</v>
       </c>
       <c r="N9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1388,16 +1391,16 @@
         <v>157</v>
       </c>
       <c r="N10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R10" t="s">
         <v>157</v>
       </c>
       <c r="S10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1441,16 +1444,16 @@
         <v>158</v>
       </c>
       <c r="N11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R11" t="s">
         <v>158</v>
       </c>
       <c r="S11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1494,16 +1497,16 @@
         <v>159</v>
       </c>
       <c r="N12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R12" t="s">
         <v>159</v>
       </c>
       <c r="S12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1547,10 +1550,10 @@
         <v>54</v>
       </c>
       <c r="N13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1594,10 +1597,10 @@
         <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1641,10 +1644,10 @@
         <v>56</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1688,10 +1691,10 @@
         <v>57</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1735,10 +1738,10 @@
         <v>58</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1773,19 +1776,25 @@
         <v>141</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s">
         <v>150</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>161</v>
+      </c>
+      <c r="R18" t="s">
+        <v>160</v>
       </c>
       <c r="S18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1829,10 +1838,10 @@
         <v>60</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1870,10 +1879,10 @@
         <v>61</v>
       </c>
       <c r="N20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1911,10 +1920,10 @@
         <v>62</v>
       </c>
       <c r="N21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1958,10 +1967,10 @@
         <v>63</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2005,10 +2014,10 @@
         <v>64</v>
       </c>
       <c r="N23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2046,10 +2055,10 @@
         <v>65</v>
       </c>
       <c r="N24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2093,10 +2102,10 @@
         <v>66</v>
       </c>
       <c r="N25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2140,10 +2149,10 @@
         <v>67</v>
       </c>
       <c r="N26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/pedidos/pedidos.xlsx
+++ b/pedidos/pedidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="166">
   <si>
     <t>Numero_Pedido</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>27/06/2025 13:36</t>
+  </si>
+  <si>
+    <t>27/06/2025 14:37</t>
   </si>
   <si>
     <t>Sistema (PDF Gerado)</t>
@@ -979,10 +982,10 @@
         <v>151</v>
       </c>
       <c r="N2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R2" t="s">
         <v>151</v>
@@ -1029,16 +1032,16 @@
         <v>152</v>
       </c>
       <c r="N3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q3" t="s">
         <v>162</v>
-      </c>
-      <c r="P3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>161</v>
       </c>
       <c r="R3" t="s">
         <v>152</v>
@@ -1085,16 +1088,16 @@
         <v>153</v>
       </c>
       <c r="N4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R4" t="s">
         <v>153</v>
       </c>
       <c r="S4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1138,16 +1141,16 @@
         <v>154</v>
       </c>
       <c r="N5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R5" t="s">
         <v>154</v>
       </c>
       <c r="S5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1191,10 +1194,10 @@
         <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1238,16 +1241,16 @@
         <v>155</v>
       </c>
       <c r="N7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R7" t="s">
         <v>155</v>
       </c>
       <c r="S7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1291,16 +1294,16 @@
         <v>156</v>
       </c>
       <c r="N8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P8" t="s">
         <v>156</v>
       </c>
       <c r="S8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1344,10 +1347,10 @@
         <v>50</v>
       </c>
       <c r="N9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1391,16 +1394,16 @@
         <v>157</v>
       </c>
       <c r="N10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R10" t="s">
         <v>157</v>
       </c>
       <c r="S10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1444,16 +1447,16 @@
         <v>158</v>
       </c>
       <c r="N11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R11" t="s">
         <v>158</v>
       </c>
       <c r="S11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1497,16 +1500,16 @@
         <v>159</v>
       </c>
       <c r="N12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R12" t="s">
         <v>159</v>
       </c>
       <c r="S12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1550,10 +1553,10 @@
         <v>54</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1597,10 +1600,10 @@
         <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1644,10 +1647,10 @@
         <v>56</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1691,10 +1694,10 @@
         <v>57</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1738,10 +1741,10 @@
         <v>58</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1785,16 +1788,16 @@
         <v>160</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R18" t="s">
         <v>160</v>
       </c>
       <c r="S18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1838,10 +1841,10 @@
         <v>60</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1879,10 +1882,10 @@
         <v>61</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1920,10 +1923,10 @@
         <v>62</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1967,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="N22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2014,10 +2017,10 @@
         <v>64</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2055,10 +2058,10 @@
         <v>65</v>
       </c>
       <c r="N24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2102,10 +2105,10 @@
         <v>66</v>
       </c>
       <c r="N25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2140,19 +2143,25 @@
         <v>146</v>
       </c>
       <c r="K26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L26" t="s">
         <v>150</v>
       </c>
       <c r="M26" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="N26" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>162</v>
+      </c>
+      <c r="R26" t="s">
+        <v>161</v>
       </c>
       <c r="S26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/pedidos/pedidos.xlsx
+++ b/pedidos/pedidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="168">
   <si>
     <t>Numero_Pedido</t>
   </si>
@@ -487,10 +487,7 @@
     <t>11/06/2025 08:36</t>
   </si>
   <si>
-    <t>10/06/2025 13:10</t>
-  </si>
-  <si>
-    <t>09/06/2025 19:55</t>
+    <t>02/07/2025 14:28</t>
   </si>
   <si>
     <t>09/06/2025 19:59</t>
@@ -511,7 +508,16 @@
     <t>Sistema Automático</t>
   </si>
   <si>
+    <t>Sistema (PDF Exportado)</t>
+  </si>
+  <si>
     <t>09/06/2025 14:57</t>
+  </si>
+  <si>
+    <t>02/07/2025 14:12</t>
+  </si>
+  <si>
+    <t>02/07/2025 14:13</t>
   </si>
 </sst>
 </file>
@@ -982,10 +988,10 @@
         <v>151</v>
       </c>
       <c r="N2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R2" t="s">
         <v>151</v>
@@ -1032,16 +1038,16 @@
         <v>152</v>
       </c>
       <c r="N3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O3" t="s">
         <v>162</v>
-      </c>
-      <c r="O3" t="s">
-        <v>163</v>
       </c>
       <c r="P3" t="s">
         <v>165</v>
       </c>
       <c r="Q3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R3" t="s">
         <v>152</v>
@@ -1088,16 +1094,16 @@
         <v>153</v>
       </c>
       <c r="N4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R4" t="s">
         <v>153</v>
       </c>
       <c r="S4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1141,16 +1147,16 @@
         <v>154</v>
       </c>
       <c r="N5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R5" t="s">
         <v>154</v>
       </c>
       <c r="S5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1194,10 +1200,10 @@
         <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1241,16 +1247,16 @@
         <v>155</v>
       </c>
       <c r="N7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R7" t="s">
         <v>155</v>
       </c>
       <c r="S7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1294,16 +1300,16 @@
         <v>156</v>
       </c>
       <c r="N8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
         <v>156</v>
       </c>
       <c r="S8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1338,19 +1344,31 @@
         <v>133</v>
       </c>
       <c r="K9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L9" t="s">
         <v>150</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="N9" t="s">
         <v>164</v>
       </c>
+      <c r="O9" t="s">
+        <v>164</v>
+      </c>
+      <c r="P9" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>164</v>
+      </c>
+      <c r="R9" t="s">
+        <v>157</v>
+      </c>
       <c r="S9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1394,16 +1412,22 @@
         <v>157</v>
       </c>
       <c r="N10" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="O10" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" t="s">
+        <v>167</v>
       </c>
       <c r="Q10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R10" t="s">
         <v>157</v>
       </c>
       <c r="S10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1444,19 +1468,25 @@
         <v>150</v>
       </c>
       <c r="M11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N11" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="O11" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" t="s">
+        <v>167</v>
       </c>
       <c r="Q11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1497,19 +1527,19 @@
         <v>150</v>
       </c>
       <c r="M12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1553,10 +1583,10 @@
         <v>54</v>
       </c>
       <c r="N13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1600,10 +1630,10 @@
         <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1647,10 +1677,10 @@
         <v>56</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1694,10 +1724,10 @@
         <v>57</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1741,10 +1771,10 @@
         <v>58</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1785,19 +1815,19 @@
         <v>150</v>
       </c>
       <c r="M18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1841,10 +1871,10 @@
         <v>60</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1882,10 +1912,10 @@
         <v>61</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1923,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="N21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1970,10 +2000,10 @@
         <v>63</v>
       </c>
       <c r="N22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2017,10 +2047,10 @@
         <v>64</v>
       </c>
       <c r="N23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2058,10 +2088,10 @@
         <v>65</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2105,10 +2135,10 @@
         <v>66</v>
       </c>
       <c r="N25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2149,19 +2179,19 @@
         <v>150</v>
       </c>
       <c r="M26" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" t="s">
         <v>161</v>
       </c>
-      <c r="N26" t="s">
-        <v>162</v>
-      </c>
       <c r="Q26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/pedidos/pedidos.xlsx
+++ b/pedidos/pedidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="169">
   <si>
     <t>Numero_Pedido</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>09/06/2025 19:59</t>
+  </si>
+  <si>
+    <t>02/07/2025 15:02</t>
   </si>
   <si>
     <t>27/06/2025 13:36</t>
@@ -988,10 +991,10 @@
         <v>151</v>
       </c>
       <c r="N2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R2" t="s">
         <v>151</v>
@@ -1038,16 +1041,16 @@
         <v>152</v>
       </c>
       <c r="N3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" t="s">
         <v>162</v>
-      </c>
-      <c r="P3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>161</v>
       </c>
       <c r="R3" t="s">
         <v>152</v>
@@ -1094,16 +1097,16 @@
         <v>153</v>
       </c>
       <c r="N4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R4" t="s">
         <v>153</v>
       </c>
       <c r="S4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1147,16 +1150,16 @@
         <v>154</v>
       </c>
       <c r="N5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R5" t="s">
         <v>154</v>
       </c>
       <c r="S5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1200,10 +1203,10 @@
         <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1247,16 +1250,16 @@
         <v>155</v>
       </c>
       <c r="N7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R7" t="s">
         <v>155</v>
       </c>
       <c r="S7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1300,16 +1303,16 @@
         <v>156</v>
       </c>
       <c r="N8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P8" t="s">
         <v>156</v>
       </c>
       <c r="S8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1353,22 +1356,22 @@
         <v>157</v>
       </c>
       <c r="N9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R9" t="s">
         <v>157</v>
       </c>
       <c r="S9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1412,22 +1415,22 @@
         <v>157</v>
       </c>
       <c r="N10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R10" t="s">
         <v>157</v>
       </c>
       <c r="S10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1471,22 +1474,22 @@
         <v>157</v>
       </c>
       <c r="N11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R11" t="s">
         <v>157</v>
       </c>
       <c r="S11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1530,16 +1533,16 @@
         <v>158</v>
       </c>
       <c r="N12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R12" t="s">
         <v>158</v>
       </c>
       <c r="S12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1583,10 +1586,10 @@
         <v>54</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1630,10 +1633,10 @@
         <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1668,19 +1671,25 @@
         <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
         <v>150</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>165</v>
+      </c>
+      <c r="R15" t="s">
+        <v>159</v>
       </c>
       <c r="S15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1715,19 +1724,25 @@
         <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
         <v>150</v>
       </c>
       <c r="M16" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>165</v>
+      </c>
+      <c r="R16" t="s">
+        <v>159</v>
       </c>
       <c r="S16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1762,19 +1777,25 @@
         <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
         <v>150</v>
       </c>
       <c r="M17" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>165</v>
+      </c>
+      <c r="R17" t="s">
+        <v>159</v>
       </c>
       <c r="S17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1815,19 +1836,19 @@
         <v>150</v>
       </c>
       <c r="M18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1871,10 +1892,10 @@
         <v>60</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1912,10 +1933,10 @@
         <v>61</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1953,10 +1974,10 @@
         <v>62</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2000,10 +2021,10 @@
         <v>63</v>
       </c>
       <c r="N22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2047,10 +2068,10 @@
         <v>64</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2088,10 +2109,10 @@
         <v>65</v>
       </c>
       <c r="N24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2135,10 +2156,10 @@
         <v>66</v>
       </c>
       <c r="N25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2179,19 +2200,19 @@
         <v>150</v>
       </c>
       <c r="M26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N26" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>162</v>
+      </c>
+      <c r="R26" t="s">
         <v>161</v>
       </c>
-      <c r="Q26" t="s">
-        <v>161</v>
-      </c>
-      <c r="R26" t="s">
-        <v>160</v>
-      </c>
       <c r="S26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/pedidos/pedidos.xlsx
+++ b/pedidos/pedidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="170">
   <si>
     <t>Numero_Pedido</t>
   </si>
@@ -487,10 +487,13 @@
     <t>11/06/2025 08:36</t>
   </si>
   <si>
-    <t>02/07/2025 14:28</t>
-  </si>
-  <si>
-    <t>09/06/2025 19:59</t>
+    <t>02/07/2025 15:21</t>
+  </si>
+  <si>
+    <t>02/07/2025 15:28</t>
+  </si>
+  <si>
+    <t>02/07/2025 15:25</t>
   </si>
   <si>
     <t>02/07/2025 15:02</t>
@@ -991,10 +994,10 @@
         <v>151</v>
       </c>
       <c r="N2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R2" t="s">
         <v>151</v>
@@ -1041,16 +1044,16 @@
         <v>152</v>
       </c>
       <c r="N3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q3" t="s">
         <v>163</v>
-      </c>
-      <c r="P3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>162</v>
       </c>
       <c r="R3" t="s">
         <v>152</v>
@@ -1097,16 +1100,16 @@
         <v>153</v>
       </c>
       <c r="N4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R4" t="s">
         <v>153</v>
       </c>
       <c r="S4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1150,16 +1153,16 @@
         <v>154</v>
       </c>
       <c r="N5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R5" t="s">
         <v>154</v>
       </c>
       <c r="S5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1203,10 +1206,10 @@
         <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1250,16 +1253,16 @@
         <v>155</v>
       </c>
       <c r="N7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R7" t="s">
         <v>155</v>
       </c>
       <c r="S7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1303,16 +1306,16 @@
         <v>156</v>
       </c>
       <c r="N8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P8" t="s">
         <v>156</v>
       </c>
       <c r="S8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1356,22 +1359,22 @@
         <v>157</v>
       </c>
       <c r="N9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R9" t="s">
         <v>157</v>
       </c>
       <c r="S9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1412,25 +1415,25 @@
         <v>150</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1471,25 +1474,25 @@
         <v>150</v>
       </c>
       <c r="M11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1530,19 +1533,19 @@
         <v>150</v>
       </c>
       <c r="M12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="R12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1586,10 +1589,10 @@
         <v>54</v>
       </c>
       <c r="N13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1633,10 +1636,10 @@
         <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1677,19 +1680,19 @@
         <v>150</v>
       </c>
       <c r="M15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1730,19 +1733,19 @@
         <v>150</v>
       </c>
       <c r="M16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1783,19 +1786,19 @@
         <v>150</v>
       </c>
       <c r="M17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1836,19 +1839,19 @@
         <v>150</v>
       </c>
       <c r="M18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1892,10 +1895,10 @@
         <v>60</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1933,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1974,10 +1977,10 @@
         <v>62</v>
       </c>
       <c r="N21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2021,10 +2024,10 @@
         <v>63</v>
       </c>
       <c r="N22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2068,10 +2071,10 @@
         <v>64</v>
       </c>
       <c r="N23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2109,10 +2112,10 @@
         <v>65</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2156,10 +2159,10 @@
         <v>66</v>
       </c>
       <c r="N25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2200,19 +2203,19 @@
         <v>150</v>
       </c>
       <c r="M26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N26" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>163</v>
+      </c>
+      <c r="R26" t="s">
         <v>162</v>
       </c>
-      <c r="Q26" t="s">
-        <v>162</v>
-      </c>
-      <c r="R26" t="s">
-        <v>161</v>
-      </c>
       <c r="S26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/pedidos/pedidos.xlsx
+++ b/pedidos/pedidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="169">
   <si>
     <t>Numero_Pedido</t>
   </si>
@@ -487,13 +487,10 @@
     <t>11/06/2025 08:36</t>
   </si>
   <si>
-    <t>02/07/2025 15:21</t>
-  </si>
-  <si>
-    <t>02/07/2025 15:28</t>
-  </si>
-  <si>
-    <t>02/07/2025 15:25</t>
+    <t>02/07/2025 15:54</t>
+  </si>
+  <si>
+    <t>02/07/2025 15:52</t>
   </si>
   <si>
     <t>02/07/2025 15:02</t>
@@ -994,10 +991,10 @@
         <v>151</v>
       </c>
       <c r="N2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R2" t="s">
         <v>151</v>
@@ -1044,16 +1041,16 @@
         <v>152</v>
       </c>
       <c r="N3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O3" t="s">
         <v>163</v>
       </c>
-      <c r="O3" t="s">
-        <v>164</v>
-      </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R3" t="s">
         <v>152</v>
@@ -1100,16 +1097,16 @@
         <v>153</v>
       </c>
       <c r="N4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R4" t="s">
         <v>153</v>
       </c>
       <c r="S4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1153,16 +1150,16 @@
         <v>154</v>
       </c>
       <c r="N5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R5" t="s">
         <v>154</v>
       </c>
       <c r="S5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1206,10 +1203,10 @@
         <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1253,16 +1250,16 @@
         <v>155</v>
       </c>
       <c r="N7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R7" t="s">
         <v>155</v>
       </c>
       <c r="S7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1306,16 +1303,16 @@
         <v>156</v>
       </c>
       <c r="N8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P8" t="s">
         <v>156</v>
       </c>
       <c r="S8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1359,22 +1356,22 @@
         <v>157</v>
       </c>
       <c r="N9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R9" t="s">
         <v>157</v>
       </c>
       <c r="S9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1415,25 +1412,25 @@
         <v>150</v>
       </c>
       <c r="M10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1474,25 +1471,25 @@
         <v>150</v>
       </c>
       <c r="M11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1533,19 +1530,19 @@
         <v>150</v>
       </c>
       <c r="M12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1580,19 +1577,25 @@
         <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
         <v>150</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s">
         <v>165</v>
       </c>
+      <c r="Q13" t="s">
+        <v>165</v>
+      </c>
+      <c r="R13" t="s">
+        <v>158</v>
+      </c>
       <c r="S13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1627,19 +1630,25 @@
         <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
         <v>150</v>
       </c>
       <c r="M14" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="N14" t="s">
         <v>165</v>
       </c>
+      <c r="Q14" t="s">
+        <v>165</v>
+      </c>
+      <c r="R14" t="s">
+        <v>158</v>
+      </c>
       <c r="S14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1680,19 +1689,19 @@
         <v>150</v>
       </c>
       <c r="M15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1733,19 +1742,19 @@
         <v>150</v>
       </c>
       <c r="M16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1786,19 +1795,19 @@
         <v>150</v>
       </c>
       <c r="M17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1839,19 +1848,19 @@
         <v>150</v>
       </c>
       <c r="M18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1895,10 +1904,10 @@
         <v>60</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1936,10 +1945,10 @@
         <v>61</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1977,10 +1986,10 @@
         <v>62</v>
       </c>
       <c r="N21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2024,10 +2033,10 @@
         <v>63</v>
       </c>
       <c r="N22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2071,10 +2080,10 @@
         <v>64</v>
       </c>
       <c r="N23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2112,10 +2121,10 @@
         <v>65</v>
       </c>
       <c r="N24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2159,10 +2168,10 @@
         <v>66</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2203,19 +2212,19 @@
         <v>150</v>
       </c>
       <c r="M26" t="s">
+        <v>161</v>
+      </c>
+      <c r="N26" t="s">
         <v>162</v>
       </c>
-      <c r="N26" t="s">
-        <v>163</v>
-      </c>
       <c r="Q26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
